--- a/OFFERS-224/ru/ru.xlsx
+++ b/OFFERS-224/ru/ru.xlsx
@@ -733,7 +733,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Оплачиваете при получении на почте</v>
+        <v>Оплатите при получении на почте</v>
       </c>
     </row>
     <row r="72">
@@ -1115,19 +1115,19 @@
 				&lt;p&gt;&lt;b&gt;&lt;span data-translate="64"&gt;Заявка&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="65"&gt;Оставляете заявку на сайте&lt;/span&gt;&lt;/p&gt;
 				&lt;p&gt;&lt;b&gt;&lt;span data-translate="66"&gt;Звонок&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="67"&gt;Наш менеджер уточняет детали заказа&lt;/span&gt;&lt;/p&gt;
 				&lt;p&gt;&lt;b&gt;&lt;span data-translate="68"&gt;Отправка&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="69"&gt;Доставляем ваш товар в течение 1-2 дней&lt;/span&gt;&lt;/p&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="70"&gt;Получение&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="71"&gt;Оплачиваете при получении на почте&lt;/span&gt;&lt;/p&gt;
+				&lt;p&gt;&lt;b&gt;&lt;span data-translate="70"&gt;Получение&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="71"&gt;Оплатите при получении на почте&lt;/span&gt;&lt;/p&gt;
 			&lt;/div&gt;
 		&lt;/section&gt;
 	&lt;/main&gt;
 	&lt;footer class="intro"&gt;
 		&lt;div class="intro__top"&gt;
 			&lt;h2 class="intro__title white"&gt;&lt;span data-translate="72"&gt;Уникальные корректирующие зажимы для ушей MagicBax&lt;/span&gt;&lt;/h2&gt;
-			&lt;p class="subtitle"&gt;&lt;span data-translate="7</v>
+			&lt;p class="subtitle"&gt;&lt;span data-translate="73"&gt;</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">3"&gt;Видимый результат в 2 движения :&lt;/span&gt;&lt;/p&gt;
+        <v xml:space="preserve">Видимый результат в 2 движения :&lt;/span&gt;&lt;/p&gt;
 			&lt;img class="intro__img" src="img/intro__bef-aft.png" alt&gt;
 			&lt;div class="builets"&gt;
 				&lt;div class="builets__item builets__item--1"&gt;&lt;img src="img/intro_li.svg" alt&gt;&lt;span data-translate="74"&gt;Улучшает внешний вид
@@ -1194,12 +1194,12 @@
 	&lt;script src="libs/carousel/owl.carousel.min.js"&gt;&lt;/script&gt;
 	&lt;script src="js/timer.js"&gt;&lt;/script&gt;
 	&lt;script src="js/common.js"&gt;&lt;/script&gt;
-&lt;script type="text/java</v>
+&lt;script type="text/javascr</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">script" src="/libs/js/common.js"&gt;&lt;/script&gt;
+        <v xml:space="preserve">ipt" src="/libs/js/common.js"&gt;&lt;/script&gt;
 &lt;script&gt;
     $(document).ready(function() {
         $.init({
